--- a/config_10.26/shoping_config_vivo.xlsx
+++ b/config_10.26/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="1996">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7686,6 +7686,18 @@
   </si>
   <si>
     <t>79400000,8,27,27,2000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归礼遇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10687,13 +10699,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO724"/>
+  <dimension ref="A1:AO725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X652" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X700" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="A725" sqref="A725:XFD725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -57730,6 +57742,63 @@
         <v>1</v>
       </c>
     </row>
+    <row r="725" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A725" s="21">
+        <v>724</v>
+      </c>
+      <c r="B725" s="30">
+        <v>10641</v>
+      </c>
+      <c r="F725" s="30">
+        <v>1</v>
+      </c>
+      <c r="G725" s="30" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M725" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N725" s="30">
+        <v>0</v>
+      </c>
+      <c r="O725" s="30">
+        <v>0</v>
+      </c>
+      <c r="P725" s="30" t="s">
+        <v>1994</v>
+      </c>
+      <c r="Q725" s="30">
+        <v>3000</v>
+      </c>
+      <c r="S725" s="54"/>
+      <c r="X725" s="30" t="s">
+        <v>1995</v>
+      </c>
+      <c r="Y725" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z725" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA725" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB725" s="30">
+        <v>14</v>
+      </c>
+      <c r="AI725" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ725" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM725" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN725" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="H683:H688"/>

--- a/config_10.26/shoping_config_vivo.xlsx
+++ b/config_10.26/shoping_config_vivo.xlsx
@@ -7926,7 +7926,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8190,6 +8190,9 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10702,10 +10705,10 @@
   <dimension ref="A1:AO725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X700" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X664" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A725" sqref="A725:XFD725"/>
+      <selection pane="bottomRight" activeCell="AB671" sqref="AB671:AB682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -52915,7 +52918,7 @@
       <c r="G655" s="84" t="s">
         <v>1937</v>
       </c>
-      <c r="H655" s="91" t="s">
+      <c r="H655" s="92" t="s">
         <v>1948</v>
       </c>
       <c r="K655" s="84" t="s">
@@ -52983,7 +52986,7 @@
       <c r="G656" s="81" t="s">
         <v>1940</v>
       </c>
-      <c r="H656" s="92"/>
+      <c r="H656" s="93"/>
       <c r="K656" s="84" t="s">
         <v>1617</v>
       </c>
@@ -53049,7 +53052,7 @@
       <c r="G657" s="81" t="s">
         <v>1941</v>
       </c>
-      <c r="H657" s="92"/>
+      <c r="H657" s="93"/>
       <c r="K657" s="84" t="s">
         <v>1618</v>
       </c>
@@ -53115,7 +53118,7 @@
       <c r="G658" s="81" t="s">
         <v>1942</v>
       </c>
-      <c r="H658" s="92"/>
+      <c r="H658" s="93"/>
       <c r="K658" s="84" t="s">
         <v>1620</v>
       </c>
@@ -53181,7 +53184,7 @@
       <c r="G659" s="81" t="s">
         <v>1943</v>
       </c>
-      <c r="H659" s="92"/>
+      <c r="H659" s="93"/>
       <c r="K659" s="84" t="s">
         <v>1621</v>
       </c>
@@ -53247,7 +53250,7 @@
       <c r="G660" s="81" t="s">
         <v>1945</v>
       </c>
-      <c r="H660" s="92"/>
+      <c r="H660" s="93"/>
       <c r="K660" s="84" t="s">
         <v>1622</v>
       </c>
@@ -53313,7 +53316,7 @@
       <c r="G661" s="81" t="s">
         <v>1949</v>
       </c>
-      <c r="H661" s="92"/>
+      <c r="H661" s="93"/>
       <c r="K661" s="84" t="s">
         <v>1624</v>
       </c>
@@ -54060,8 +54063,8 @@
       <c r="AA671" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB671" s="88">
-        <v>80</v>
+      <c r="AB671" s="89">
+        <v>76</v>
       </c>
       <c r="AI671" s="88">
         <v>1</v>
@@ -54131,8 +54134,8 @@
       <c r="AA672" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB672" s="88">
-        <v>80</v>
+      <c r="AB672" s="89">
+        <v>76</v>
       </c>
       <c r="AI672" s="88">
         <v>1</v>
@@ -54202,8 +54205,8 @@
       <c r="AA673" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB673" s="88">
-        <v>80</v>
+      <c r="AB673" s="89">
+        <v>76</v>
       </c>
       <c r="AI673" s="88">
         <v>1</v>
@@ -54273,8 +54276,8 @@
       <c r="AA674" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB674" s="88">
-        <v>81</v>
+      <c r="AB674" s="89">
+        <v>77</v>
       </c>
       <c r="AI674" s="88">
         <v>1</v>
@@ -54344,8 +54347,8 @@
       <c r="AA675" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB675" s="88">
-        <v>81</v>
+      <c r="AB675" s="89">
+        <v>77</v>
       </c>
       <c r="AI675" s="88">
         <v>1</v>
@@ -54415,8 +54418,8 @@
       <c r="AA676" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB676" s="88">
-        <v>81</v>
+      <c r="AB676" s="89">
+        <v>77</v>
       </c>
       <c r="AI676" s="88">
         <v>1</v>
@@ -54486,8 +54489,8 @@
       <c r="AA677" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB677" s="88">
-        <v>82</v>
+      <c r="AB677" s="89">
+        <v>78</v>
       </c>
       <c r="AI677" s="88">
         <v>1</v>
@@ -54557,8 +54560,8 @@
       <c r="AA678" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB678" s="88">
-        <v>82</v>
+      <c r="AB678" s="89">
+        <v>78</v>
       </c>
       <c r="AI678" s="88">
         <v>1</v>
@@ -54628,8 +54631,8 @@
       <c r="AA679" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB679" s="88">
-        <v>82</v>
+      <c r="AB679" s="89">
+        <v>78</v>
       </c>
       <c r="AI679" s="88">
         <v>1</v>
@@ -54699,8 +54702,8 @@
       <c r="AA680" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB680" s="88">
-        <v>83</v>
+      <c r="AB680" s="89">
+        <v>79</v>
       </c>
       <c r="AI680" s="88">
         <v>1</v>
@@ -54770,8 +54773,8 @@
       <c r="AA681" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB681" s="88">
-        <v>83</v>
+      <c r="AB681" s="89">
+        <v>79</v>
       </c>
       <c r="AI681" s="88">
         <v>1</v>
@@ -54841,8 +54844,8 @@
       <c r="AA682" s="88">
         <v>1635782399</v>
       </c>
-      <c r="AB682" s="88">
-        <v>83</v>
+      <c r="AB682" s="89">
+        <v>79</v>
       </c>
       <c r="AI682" s="88">
         <v>1</v>
@@ -54870,7 +54873,7 @@
       <c r="G683" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="H683" s="89" t="s">
+      <c r="H683" s="90" t="s">
         <v>1934</v>
       </c>
       <c r="K683" s="79" t="s">
@@ -54938,7 +54941,7 @@
       <c r="G684" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="H684" s="89"/>
+      <c r="H684" s="90"/>
       <c r="K684" s="79" t="s">
         <v>1584</v>
       </c>
@@ -55004,7 +55007,7 @@
       <c r="G685" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="H685" s="89"/>
+      <c r="H685" s="90"/>
       <c r="K685" s="79" t="s">
         <v>1586</v>
       </c>
@@ -55070,7 +55073,7 @@
       <c r="G686" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="H686" s="89"/>
+      <c r="H686" s="90"/>
       <c r="K686" s="79" t="s">
         <v>1588</v>
       </c>
@@ -55136,7 +55139,7 @@
       <c r="G687" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="H687" s="89"/>
+      <c r="H687" s="90"/>
       <c r="K687" s="79" t="s">
         <v>1590</v>
       </c>
@@ -55202,7 +55205,7 @@
       <c r="G688" s="79" t="s">
         <v>1655</v>
       </c>
-      <c r="H688" s="89"/>
+      <c r="H688" s="90"/>
       <c r="K688" s="79" t="s">
         <v>1592</v>
       </c>
@@ -55268,7 +55271,7 @@
       <c r="G689" s="79" t="s">
         <v>1657</v>
       </c>
-      <c r="H689" s="89" t="s">
+      <c r="H689" s="90" t="s">
         <v>1935</v>
       </c>
       <c r="K689" s="79" t="s">
@@ -55336,7 +55339,7 @@
       <c r="G690" s="79" t="s">
         <v>1657</v>
       </c>
-      <c r="H690" s="90"/>
+      <c r="H690" s="91"/>
       <c r="K690" s="79" t="s">
         <v>1584</v>
       </c>
@@ -55402,7 +55405,7 @@
       <c r="G691" s="79" t="s">
         <v>1657</v>
       </c>
-      <c r="H691" s="90"/>
+      <c r="H691" s="91"/>
       <c r="K691" s="79" t="s">
         <v>1586</v>
       </c>
@@ -55468,7 +55471,7 @@
       <c r="G692" s="79" t="s">
         <v>1657</v>
       </c>
-      <c r="H692" s="90"/>
+      <c r="H692" s="91"/>
       <c r="K692" s="79" t="s">
         <v>1588</v>
       </c>
@@ -55534,7 +55537,7 @@
       <c r="G693" s="79" t="s">
         <v>1657</v>
       </c>
-      <c r="H693" s="90"/>
+      <c r="H693" s="91"/>
       <c r="K693" s="79" t="s">
         <v>1590</v>
       </c>
@@ -55600,7 +55603,7 @@
       <c r="G694" s="79" t="s">
         <v>1657</v>
       </c>
-      <c r="H694" s="90"/>
+      <c r="H694" s="91"/>
       <c r="K694" s="79" t="s">
         <v>1592</v>
       </c>
@@ -55897,7 +55900,7 @@
       <c r="G698" s="84" t="s">
         <v>1937</v>
       </c>
-      <c r="H698" s="91" t="s">
+      <c r="H698" s="92" t="s">
         <v>1938</v>
       </c>
       <c r="K698" s="84" t="s">
@@ -55965,7 +55968,7 @@
       <c r="G699" s="81" t="s">
         <v>1940</v>
       </c>
-      <c r="H699" s="92"/>
+      <c r="H699" s="93"/>
       <c r="K699" s="84" t="s">
         <v>1617</v>
       </c>
@@ -56031,7 +56034,7 @@
       <c r="G700" s="81" t="s">
         <v>1941</v>
       </c>
-      <c r="H700" s="92"/>
+      <c r="H700" s="93"/>
       <c r="K700" s="84" t="s">
         <v>1618</v>
       </c>
@@ -56097,7 +56100,7 @@
       <c r="G701" s="81" t="s">
         <v>1942</v>
       </c>
-      <c r="H701" s="92"/>
+      <c r="H701" s="93"/>
       <c r="K701" s="84" t="s">
         <v>1620</v>
       </c>
@@ -56163,7 +56166,7 @@
       <c r="G702" s="81" t="s">
         <v>1944</v>
       </c>
-      <c r="H702" s="92"/>
+      <c r="H702" s="93"/>
       <c r="K702" s="84" t="s">
         <v>1621</v>
       </c>
@@ -56229,7 +56232,7 @@
       <c r="G703" s="81" t="s">
         <v>1945</v>
       </c>
-      <c r="H703" s="92"/>
+      <c r="H703" s="93"/>
       <c r="K703" s="84" t="s">
         <v>1622</v>
       </c>
@@ -56295,7 +56298,7 @@
       <c r="G704" s="81" t="s">
         <v>1946</v>
       </c>
-      <c r="H704" s="92"/>
+      <c r="H704" s="93"/>
       <c r="K704" s="84" t="s">
         <v>1624</v>
       </c>
@@ -56649,7 +56652,7 @@
       <c r="G709" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H709" s="93" t="s">
+      <c r="H709" s="94" t="s">
         <v>1952</v>
       </c>
       <c r="J709" s="86" t="s">
@@ -56720,7 +56723,7 @@
       <c r="G710" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H710" s="93"/>
+      <c r="H710" s="94"/>
       <c r="J710" s="86" t="s">
         <v>1547</v>
       </c>
@@ -56789,7 +56792,7 @@
       <c r="G711" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H711" s="93"/>
+      <c r="H711" s="94"/>
       <c r="J711" s="86" t="s">
         <v>1547</v>
       </c>
@@ -56858,7 +56861,7 @@
       <c r="G712" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H712" s="93"/>
+      <c r="H712" s="94"/>
       <c r="J712" s="86" t="s">
         <v>1547</v>
       </c>
@@ -56927,7 +56930,7 @@
       <c r="G713" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H713" s="93"/>
+      <c r="H713" s="94"/>
       <c r="J713" s="86" t="s">
         <v>1554</v>
       </c>
@@ -56996,7 +56999,7 @@
       <c r="G714" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H714" s="93"/>
+      <c r="H714" s="94"/>
       <c r="J714" s="86" t="s">
         <v>1554</v>
       </c>
@@ -57065,7 +57068,7 @@
       <c r="G715" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H715" s="93"/>
+      <c r="H715" s="94"/>
       <c r="J715" s="86" t="s">
         <v>1554</v>
       </c>
@@ -57134,7 +57137,7 @@
       <c r="G716" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H716" s="93"/>
+      <c r="H716" s="94"/>
       <c r="J716" s="86" t="s">
         <v>1554</v>
       </c>
@@ -57203,7 +57206,7 @@
       <c r="G717" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H717" s="93"/>
+      <c r="H717" s="94"/>
       <c r="J717" s="86" t="s">
         <v>1561</v>
       </c>
@@ -57272,7 +57275,7 @@
       <c r="G718" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H718" s="93"/>
+      <c r="H718" s="94"/>
       <c r="J718" s="86" t="s">
         <v>1561</v>
       </c>
@@ -57341,7 +57344,7 @@
       <c r="G719" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H719" s="93"/>
+      <c r="H719" s="94"/>
       <c r="J719" s="86" t="s">
         <v>1561</v>
       </c>
@@ -57410,7 +57413,7 @@
       <c r="G720" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H720" s="93"/>
+      <c r="H720" s="94"/>
       <c r="J720" s="86" t="s">
         <v>1561</v>
       </c>
@@ -57479,7 +57482,7 @@
       <c r="G721" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H721" s="93"/>
+      <c r="H721" s="94"/>
       <c r="J721" s="86" t="s">
         <v>1450</v>
       </c>
@@ -57548,7 +57551,7 @@
       <c r="G722" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H722" s="93"/>
+      <c r="H722" s="94"/>
       <c r="J722" s="86" t="s">
         <v>1450</v>
       </c>
@@ -57617,7 +57620,7 @@
       <c r="G723" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H723" s="93"/>
+      <c r="H723" s="94"/>
       <c r="J723" s="86" t="s">
         <v>1450</v>
       </c>
@@ -57686,7 +57689,7 @@
       <c r="G724" s="86" t="s">
         <v>1951</v>
       </c>
-      <c r="H724" s="93"/>
+      <c r="H724" s="94"/>
       <c r="J724" s="86" t="s">
         <v>1450</v>
       </c>
